--- a/Large Scale Instances/ARPD wrt degree of imbalance.xlsx
+++ b/Large Scale Instances/ARPD wrt degree of imbalance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Size (mxn)</t>
   </si>
@@ -45,22 +45,58 @@
     <t>Problem factor wise and new IBFS Method wise the Performace score on ARPD, w.r.t. Optimal Solution over 640 instances</t>
   </si>
   <si>
-    <t>MSVM1-TCM</t>
-  </si>
-  <si>
-    <t>MSVM1-TOCM</t>
-  </si>
-  <si>
-    <t>MSVM2-TCM</t>
-  </si>
-  <si>
-    <t>MSVM2-TOCM</t>
-  </si>
-  <si>
-    <t>MSVM3-TCM</t>
-  </si>
-  <si>
-    <t>MSVM3-TOCM</t>
+    <t>RCMMCAM-TCM</t>
+  </si>
+  <si>
+    <t>RCWMCAM-TOCM</t>
+  </si>
+  <si>
+    <t>RCMMCAM-TCM-AM</t>
+  </si>
+  <si>
+    <t>RCWMCAM-TOCM-AM</t>
+  </si>
+  <si>
+    <t>RCMMCAM-TCM-STD</t>
+  </si>
+  <si>
+    <t>RCWMCAM-TOCM-STD</t>
+  </si>
+  <si>
+    <t>WPCM2-TCM</t>
+  </si>
+  <si>
+    <t>WPCM2-TOCM</t>
+  </si>
+  <si>
+    <t>WPCM2-TOCM-AM</t>
+  </si>
+  <si>
+    <t>WPCM2-TCM-AM</t>
+  </si>
+  <si>
+    <t>WPCM2-TCM-STD</t>
+  </si>
+  <si>
+    <t>WPCM2-TOCM-STD</t>
+  </si>
+  <si>
+    <t>WUPCM2-TCM</t>
+  </si>
+  <si>
+    <t>WUPCM2-TOCM</t>
+  </si>
+  <si>
+    <t>WUPCM2-TCM-AM</t>
+  </si>
+  <si>
+    <t>WUPCM2-TOCM-AM</t>
+  </si>
+  <si>
+    <t>WUPCM2-TCM-STD</t>
+  </si>
+  <si>
+    <t>WUPCM2-TOCM-STD</t>
   </si>
 </sst>
 </file>
@@ -455,7 +491,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,18 +555,42 @@
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -556,6 +616,42 @@
       </c>
       <c r="H3">
         <v>10.19</v>
+      </c>
+      <c r="I3">
+        <v>5.94</v>
+      </c>
+      <c r="J3">
+        <v>5.41</v>
+      </c>
+      <c r="K3">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L3">
+        <v>8.61</v>
+      </c>
+      <c r="M3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="N3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="O3">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="P3">
+        <v>10.08</v>
+      </c>
+      <c r="Q3">
+        <v>9.61</v>
+      </c>
+      <c r="R3">
+        <v>9.68</v>
+      </c>
+      <c r="S3">
+        <v>9.35</v>
+      </c>
+      <c r="T3">
+        <v>9.27</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -581,6 +677,42 @@
       <c r="H4">
         <v>0.49</v>
       </c>
+      <c r="I4">
+        <v>3.47</v>
+      </c>
+      <c r="J4">
+        <v>1.57</v>
+      </c>
+      <c r="K4">
+        <v>0.34</v>
+      </c>
+      <c r="L4">
+        <v>0.36</v>
+      </c>
+      <c r="M4">
+        <v>0.35</v>
+      </c>
+      <c r="N4">
+        <v>0.35</v>
+      </c>
+      <c r="O4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.15</v>
+      </c>
+      <c r="Q4">
+        <v>0.19</v>
+      </c>
+      <c r="R4">
+        <v>0.35</v>
+      </c>
+      <c r="S4">
+        <v>0.19</v>
+      </c>
+      <c r="T4">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -605,6 +737,42 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>2.08</v>
+      </c>
+      <c r="J5">
+        <v>1.01</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -629,6 +797,42 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>1.05</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -640,7 +844,7 @@
         <v>1.625</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:H7" si="0">AVERAGE(D3:D6)</f>
+        <f t="shared" ref="D7:T7" si="0">AVERAGE(D3:D6)</f>
         <v>1.6099999999999999</v>
       </c>
       <c r="E7">
@@ -659,6 +863,54 @@
         <f t="shared" si="0"/>
         <v>2.67</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.1350000000000002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2.1225000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>2.4899999999999998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2.2424999999999997</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>2.3449999999999998</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2.3449999999999998</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>2.4425000000000003</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>2.5575000000000001</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2.5074999999999998</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>2.3649999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -684,6 +936,42 @@
       </c>
       <c r="H8">
         <v>10.66</v>
+      </c>
+      <c r="I8">
+        <v>5.84</v>
+      </c>
+      <c r="J8">
+        <v>5.32</v>
+      </c>
+      <c r="K8">
+        <v>12.7</v>
+      </c>
+      <c r="L8">
+        <v>13.11</v>
+      </c>
+      <c r="M8">
+        <v>14.18</v>
+      </c>
+      <c r="N8">
+        <v>14.18</v>
+      </c>
+      <c r="O8">
+        <v>11.67</v>
+      </c>
+      <c r="P8">
+        <v>10.93</v>
+      </c>
+      <c r="Q8">
+        <v>12.58</v>
+      </c>
+      <c r="R8">
+        <v>14.05</v>
+      </c>
+      <c r="S8">
+        <v>11.75</v>
+      </c>
+      <c r="T8">
+        <v>13.37</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,6 +997,42 @@
       <c r="H9">
         <v>0.06</v>
       </c>
+      <c r="I9">
+        <v>1.65</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>0.05</v>
+      </c>
+      <c r="M9">
+        <v>0.06</v>
+      </c>
+      <c r="N9">
+        <v>0.06</v>
+      </c>
+      <c r="O9">
+        <v>0.11</v>
+      </c>
+      <c r="P9">
+        <v>0.11</v>
+      </c>
+      <c r="Q9">
+        <v>0.05</v>
+      </c>
+      <c r="R9">
+        <v>0.11</v>
+      </c>
+      <c r="S9">
+        <v>0.11</v>
+      </c>
+      <c r="T9">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -733,6 +1057,42 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.48</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -757,6 +1117,42 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.21</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -768,7 +1164,7 @@
         <v>1.99</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:H12" si="1">AVERAGE(D8:D11)</f>
+        <f t="shared" ref="D12:T12" si="1">AVERAGE(D8:D11)</f>
         <v>1.9475</v>
       </c>
       <c r="E12">
@@ -787,6 +1183,54 @@
         <f t="shared" si="1"/>
         <v>2.68</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2.2475000000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.7525000000000002</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>3.1875</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>3.29</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>3.56</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>3.56</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>2.76</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>3.1575000000000002</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>3.54</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>3.3699999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -812,6 +1256,42 @@
       </c>
       <c r="H13">
         <v>10.92</v>
+      </c>
+      <c r="I13">
+        <v>3.55</v>
+      </c>
+      <c r="J13">
+        <v>3.84</v>
+      </c>
+      <c r="K13">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M13">
+        <v>10.1</v>
+      </c>
+      <c r="N13">
+        <v>10.1</v>
+      </c>
+      <c r="O13">
+        <v>11.35</v>
+      </c>
+      <c r="P13">
+        <v>10.96</v>
+      </c>
+      <c r="Q13">
+        <v>11.06</v>
+      </c>
+      <c r="R13">
+        <v>10.76</v>
+      </c>
+      <c r="S13">
+        <v>11.41</v>
+      </c>
+      <c r="T13">
+        <v>10.69</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -837,6 +1317,42 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>1.22</v>
+      </c>
+      <c r="J14">
+        <v>0.69</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -861,6 +1377,42 @@
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>0.59</v>
+      </c>
+      <c r="J15">
+        <v>0.31</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -885,6 +1437,42 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>0.32</v>
+      </c>
+      <c r="J16">
+        <v>0.12</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -892,7 +1480,7 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17">
-        <f t="shared" ref="C17:H17" si="2">AVERAGE(C13:C16)</f>
+        <f t="shared" ref="C17:T17" si="2">AVERAGE(C13:C16)</f>
         <v>1.8574999999999999</v>
       </c>
       <c r="D17">
@@ -915,6 +1503,54 @@
         <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.42</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>1.2399999999999998</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2.4049999999999998</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2.8374999999999999</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2.74</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>2.69</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>2.8525</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>2.6724999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -940,6 +1576,42 @@
       </c>
       <c r="H18">
         <v>11.45</v>
+      </c>
+      <c r="I18">
+        <v>3.38</v>
+      </c>
+      <c r="J18">
+        <v>3.26</v>
+      </c>
+      <c r="K18">
+        <v>9.82</v>
+      </c>
+      <c r="L18">
+        <v>9.51</v>
+      </c>
+      <c r="M18">
+        <v>9.24</v>
+      </c>
+      <c r="N18">
+        <v>9.24</v>
+      </c>
+      <c r="O18">
+        <v>12.72</v>
+      </c>
+      <c r="P18">
+        <v>12.87</v>
+      </c>
+      <c r="Q18">
+        <v>10.09</v>
+      </c>
+      <c r="R18">
+        <v>10.08</v>
+      </c>
+      <c r="S18">
+        <v>10.65</v>
+      </c>
+      <c r="T18">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -965,6 +1637,42 @@
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>0.7</v>
+      </c>
+      <c r="J19">
+        <v>0.43</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -989,6 +1697,42 @@
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>0.36</v>
+      </c>
+      <c r="J20">
+        <v>0.16</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -1013,6 +1757,42 @@
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21">
+        <v>0.15</v>
+      </c>
+      <c r="J21">
+        <v>0.05</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>-6.69</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -1024,7 +1804,7 @@
         <v>1.7675000000000001</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ref="D22:H22" si="3">AVERAGE(D18:D21)</f>
+        <f t="shared" ref="D22:T22" si="3">AVERAGE(D18:D21)</f>
         <v>1.615</v>
       </c>
       <c r="E22" s="5">
@@ -1043,18 +1823,54 @@
         <f t="shared" si="3"/>
         <v>2.8624999999999998</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="I22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1475000000000002</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3774999999999999</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.31</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="3"/>
+        <v>3.18</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="3"/>
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5225</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.52</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6625000000000001</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3250000000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
